--- a/medicine/Psychotrope/Touraillage/Touraillage.xlsx
+++ b/medicine/Psychotrope/Touraillage/Touraillage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le touraillage est la dernière des étapes du maltage après le nettoyage, la trempe et la germination. Cette opération consiste à sécher et à donner du goût, par de l'air chaud,  au malt vert provenant de la germination, dans une touraille.
 Le touraillage dure 24 à 48 heures. L'humidité du malt passe de 45 % à 4 %, par ventilation avec de l'air chaud dont on augmente progressivement la température, de 50 °C à 60 °C au démarrage, jusqu'à 85 °C pour les malts standard (Pilsen) et jusqu'à 110 °C pour les malt Munich. Cette température est maintenue pendant trois à quatre heures : c'est ce que l'on nomme le coup de feu. C'est à ce moment qu'apparaît le goût du malt ; la température atteinte en fin de touraillage détermine la couleur du malt. De même, le taux d'humidité détermine le goût de caramel.
